--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,96 +40,105 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>dumb</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -139,15 +148,9 @@
     <t>bad</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -160,15 +163,18 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
@@ -178,52 +184,61 @@
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>whole</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>many</t>
@@ -232,52 +247,49 @@
     <t>highly</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>right</t>
+    <t>please</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>dilemma</t>
+  </si>
+  <si>
+    <t>watched</t>
   </si>
   <si>
     <t>…</t>
@@ -644,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -766,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -813,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9375</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9038461538461539</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.7931034482758621</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.72</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,16 +1246,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.631578947368421</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7272727272727273</v>
+        <v>0.775</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1313,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,10 +1396,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -1405,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6875</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,16 +1446,16 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.5666666666666667</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.675</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18">
         <v>0.5</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1575,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6470588235294118</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20">
         <v>0.4285714285714285</v>
@@ -1613,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6428571428571429</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21">
         <v>0.4242424242424243</v>
@@ -1663,13 +1675,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6159420289855072</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.3055555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,13 +1725,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.3043478260869565</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1755,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1775,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1784,16 +1796,16 @@
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.2692307692307692</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1805,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,13 +1825,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.574468085106383</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.2542372881355932</v>
+        <v>0.2586520947176685</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1855,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,13 +1875,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5714285714285714</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1881,19 +1893,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.2504553734061931</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L26">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1905,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>823</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1925,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,19 +1943,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.2195121951219512</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1955,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1963,13 +1975,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1981,19 +1993,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.2131147540983606</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2005,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,7 +2025,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -2031,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.1692307692307692</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L29">
         <v>11</v>
@@ -2055,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2063,13 +2075,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2081,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.1666666666666667</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2105,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2113,13 +2125,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2131,19 +2143,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>0.1647058823529412</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2155,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2163,13 +2175,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2181,19 +2193,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.16</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2205,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2213,13 +2225,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2231,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.1473684210526316</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2255,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2263,13 +2275,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2281,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.1333333333333333</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2305,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2313,13 +2325,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2331,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>0.1304347826086956</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2355,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2363,38 +2375,38 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3333333333333333</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36">
+        <v>0.14</v>
+      </c>
+      <c r="L36">
         <v>7</v>
       </c>
-      <c r="D36">
+      <c r="M36">
         <v>7</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>14</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36">
-        <v>0.1095890410958904</v>
-      </c>
-      <c r="L36">
-        <v>8</v>
-      </c>
-      <c r="M36">
-        <v>8</v>
-      </c>
       <c r="N36">
         <v>1</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2413,38 +2425,38 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3214285714285715</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="L37">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>9</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>19</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2463,13 +2475,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3157894736842105</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2481,19 +2493,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K38">
-        <v>0.05925925925925926</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2505,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>508</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2513,13 +2525,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1538461538461539</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2531,19 +2543,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K39">
-        <v>0.05109489051094891</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2555,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2563,63 +2575,87 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0436241610738255</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>67</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40">
+        <v>0.04593639575971731</v>
+      </c>
+      <c r="L40">
         <v>13</v>
       </c>
-      <c r="D40">
-        <v>14</v>
-      </c>
-      <c r="E40">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F40">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>285</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.0469208211143695</v>
-      </c>
-      <c r="L40">
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.05033557046979865</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
         <v>16</v>
       </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="E41">
+        <v>0.06</v>
+      </c>
+      <c r="F41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>283</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41">
-        <v>0.04066265060240964</v>
+        <v>0.04518072289156626</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2631,21 +2667,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42">
-        <v>0.03246753246753246</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2657,21 +2693,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>596</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>0.03180212014134275</v>
+        <v>0.03812316715542522</v>
       </c>
       <c r="L43">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2683,21 +2719,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>274</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>0.0253968253968254</v>
+        <v>0.03518518518518519</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2709,21 +2745,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>307</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45">
-        <v>0.02534562211981567</v>
+        <v>0.0275974025974026</v>
       </c>
       <c r="L45">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2735,21 +2771,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1692</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46">
-        <v>0.02176696542893726</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2761,7 +2797,85 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>764</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>6</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48">
+        <v>0.02016129032258064</v>
+      </c>
+      <c r="L48">
+        <v>35</v>
+      </c>
+      <c r="M48">
+        <v>35</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49">
+        <v>0.01792573623559539</v>
+      </c>
+      <c r="L49">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
